--- a/docs/RFregions.xlsx
+++ b/docs/RFregions.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Example (1)" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Example (1)'!$A$1:$D$1</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="122">
   <si>
     <t>Название региона</t>
   </si>
@@ -276,6 +279,105 @@
     <t>Ямало-Ненецкий автономный округ</t>
   </si>
   <si>
+    <t>Интересующие вас данные необходимо отсортировать в соответсвии с названиями регоинов</t>
+  </si>
+  <si>
+    <t>Столбец должен быть озаглавлен и единицы измерения записаны через *</t>
+  </si>
+  <si>
+    <t>В случае нехватки каких-то данных - ячейки должны оставаться пустыми</t>
+  </si>
+  <si>
+    <t>Для работы программы CityMap - необходимо скопировать только один столбец данных вместе с заголовком</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>регионы*кол</t>
+  </si>
+  <si>
+    <t>округа*кол</t>
+  </si>
+  <si>
+    <t>Федеральный округ</t>
+  </si>
+  <si>
+    <t>Сибирский ФО</t>
+  </si>
+  <si>
+    <t>Дальневосточный ФО</t>
+  </si>
+  <si>
+    <t>Северо-Западный ФО</t>
+  </si>
+  <si>
+    <t>Центральный ФО</t>
+  </si>
+  <si>
+    <t>Южный ФО</t>
+  </si>
+  <si>
+    <t>Приволжский ФО</t>
+  </si>
+  <si>
+    <t>Уральский ФО</t>
+  </si>
+  <si>
+    <t>Северо-Кавказский ФО</t>
+  </si>
+  <si>
     <t>Плотность населения*чел/км²</t>
   </si>
   <si>
@@ -283,18 +385,6 @@
   </si>
   <si>
     <t>Площадь*км²</t>
-  </si>
-  <si>
-    <t>Интересующие вас данные необходимо отсортировать в соответсвии с названиями регоинов</t>
-  </si>
-  <si>
-    <t>Столбец должен быть озаглавлен и единицы измерения записаны через *</t>
-  </si>
-  <si>
-    <t>В случае нехватки каких-то данных - ячейки должны оставаться пустыми</t>
-  </si>
-  <si>
-    <t>Для работы программы CityMap - необходимо скопировать только один столбец данных вместе с заголовком</t>
   </si>
 </sst>
 </file>
@@ -424,21 +514,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -450,12 +525,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -464,7 +550,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,17 +566,25 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -793,59 +887,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV86"/>
+  <dimension ref="A1:AX86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="27" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="15">
+        <v>700000</v>
+      </c>
+      <c r="E2" s="18">
+        <v>14.15</v>
+      </c>
+      <c r="F2" s="18">
+        <v>2376774</v>
+      </c>
+      <c r="G2" s="18">
+        <v>167996</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5">
-        <v>14.15</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2376774</v>
-      </c>
-      <c r="D2" s="5">
-        <v>167996</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -885,27 +996,33 @@
       <c r="AT2" s="7"/>
       <c r="AU2" s="7"/>
       <c r="AV2" s="7"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+    </row>
+    <row r="3" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C3" s="8"/>
+      <c r="D3" s="15">
+        <v>7</v>
+      </c>
+      <c r="E3" s="18">
         <v>2.23</v>
       </c>
-      <c r="C3" s="8">
+      <c r="F3" s="18">
         <v>805689</v>
       </c>
-      <c r="D3" s="8">
+      <c r="G3" s="18">
         <v>361913</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -945,27 +1062,33 @@
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
       <c r="AV3" s="7"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+    </row>
+    <row r="4" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="8">
+      <c r="C4" s="8"/>
+      <c r="D4" s="15">
+        <v>70</v>
+      </c>
+      <c r="E4" s="18">
         <v>1.99</v>
       </c>
-      <c r="C4" s="8">
+      <c r="F4" s="18">
         <v>1174078</v>
       </c>
-      <c r="D4" s="8">
+      <c r="G4" s="18">
         <v>589913</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1005,24 +1128,30 @@
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+    </row>
+    <row r="5" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="8">
+      <c r="C5" s="8"/>
+      <c r="D5" s="15">
+        <v>70000000</v>
+      </c>
+      <c r="E5" s="18">
         <v>20.78</v>
       </c>
-      <c r="C5" s="8">
+      <c r="F5" s="18">
         <v>1018626</v>
       </c>
-      <c r="D5" s="8">
+      <c r="G5" s="18">
         <v>49024</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1063,24 +1192,30 @@
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+    </row>
+    <row r="6" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8">
+      <c r="C6" s="8"/>
+      <c r="D6" s="15">
+        <v>7000000</v>
+      </c>
+      <c r="E6" s="18">
         <v>57.13</v>
       </c>
-      <c r="C6" s="8">
+      <c r="F6" s="18">
         <v>1550137</v>
       </c>
-      <c r="D6" s="8">
+      <c r="G6" s="18">
         <v>27134</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1121,24 +1256,30 @@
       <c r="AT6" s="7"/>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+    </row>
+    <row r="7" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8">
+      <c r="C7" s="8"/>
+      <c r="D7" s="15">
+        <v>7000000</v>
+      </c>
+      <c r="E7" s="18">
         <v>35.159999999999997</v>
       </c>
-      <c r="C7" s="8">
+      <c r="F7" s="18">
         <v>1225741</v>
       </c>
-      <c r="D7" s="8">
+      <c r="G7" s="18">
         <v>34857</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1179,24 +1320,30 @@
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
       <c r="AV7" s="7"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+    </row>
+    <row r="8" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8">
+      <c r="C8" s="8"/>
+      <c r="D8" s="15">
+        <v>7000000</v>
+      </c>
+      <c r="E8" s="18">
         <v>48.04</v>
       </c>
-      <c r="C8" s="8">
+      <c r="F8" s="18">
         <v>1397168</v>
       </c>
-      <c r="D8" s="8">
+      <c r="G8" s="18">
         <v>29084</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1237,24 +1384,32 @@
       <c r="AT8" s="7"/>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+    </row>
+    <row r="9" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="8">
+      <c r="C9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="15">
+        <v>70000000</v>
+      </c>
+      <c r="E9" s="18">
         <v>22.55</v>
       </c>
-      <c r="C9" s="8">
+      <c r="F9" s="18">
         <v>2545937</v>
       </c>
-      <c r="D9" s="8">
+      <c r="G9" s="18">
         <v>112877</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1295,24 +1450,30 @@
       <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
       <c r="AV9" s="7"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="8">
+      <c r="C10" s="8"/>
+      <c r="D10" s="15">
+        <v>70</v>
+      </c>
+      <c r="E10" s="18">
         <v>8.2200000000000006</v>
       </c>
-      <c r="C10" s="8">
+      <c r="F10" s="18">
         <v>1187685</v>
       </c>
-      <c r="D10" s="8">
+      <c r="G10" s="18">
         <v>144527</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1353,24 +1514,32 @@
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8">
+      <c r="C11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E11" s="18">
         <v>44.69</v>
       </c>
-      <c r="C11" s="8">
+      <c r="F11" s="18">
         <v>2333477</v>
       </c>
-      <c r="D11" s="8">
+      <c r="G11" s="18">
         <v>52216</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1411,24 +1580,30 @@
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="8">
+      <c r="C12" s="8"/>
+      <c r="D12" s="16">
+        <v>7</v>
+      </c>
+      <c r="E12" s="18">
         <v>4.58</v>
       </c>
-      <c r="C12" s="8">
+      <c r="F12" s="18">
         <v>166120</v>
       </c>
-      <c r="D12" s="8">
+      <c r="G12" s="18">
         <v>36266</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1469,24 +1644,30 @@
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="8">
+      <c r="C13" s="8"/>
+      <c r="D13" s="16">
+        <v>700000</v>
+      </c>
+      <c r="E13" s="18">
         <v>2.5099999999999998</v>
       </c>
-      <c r="C13" s="8">
+      <c r="F13" s="18">
         <v>1083012</v>
       </c>
-      <c r="D13" s="8">
+      <c r="G13" s="18">
         <v>431892</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1527,24 +1708,30 @@
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
       <c r="AV13" s="7"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
+      <c r="C14" s="8"/>
+      <c r="D14" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E14" s="18">
         <v>48.04</v>
       </c>
-      <c r="C14" s="8">
+      <c r="F14" s="18">
         <v>1029838</v>
       </c>
-      <c r="D14" s="8">
+      <c r="G14" s="18">
         <v>21437</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1585,24 +1772,30 @@
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="8">
+      <c r="C15" s="8"/>
+      <c r="D15" s="16">
+        <v>700000</v>
+      </c>
+      <c r="E15" s="18">
         <v>3.11</v>
       </c>
-      <c r="C15" s="8">
+      <c r="F15" s="18">
         <v>2412800</v>
       </c>
-      <c r="D15" s="8">
+      <c r="G15" s="18">
         <v>774846</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1643,24 +1836,30 @@
       <c r="AT15" s="7"/>
       <c r="AU15" s="7"/>
       <c r="AV15" s="7"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="8">
+      <c r="C16" s="8"/>
+      <c r="D16" s="16">
+        <v>70000</v>
+      </c>
+      <c r="E16" s="18">
         <v>69.150000000000006</v>
       </c>
-      <c r="C16" s="8">
+      <c r="F16" s="18">
         <v>862254</v>
       </c>
-      <c r="D16" s="8">
+      <c r="G16" s="18">
         <v>12470</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1701,24 +1900,30 @@
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7"/>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="7"/>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="8">
+      <c r="C17" s="8"/>
+      <c r="D17" s="16">
+        <v>70</v>
+      </c>
+      <c r="E17" s="18">
         <v>64.56</v>
       </c>
-      <c r="C17" s="8">
+      <c r="F17" s="18">
         <v>976439</v>
       </c>
-      <c r="D17" s="8">
+      <c r="G17" s="18">
         <v>15125</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1759,24 +1964,30 @@
       <c r="AT17" s="7"/>
       <c r="AU17" s="7"/>
       <c r="AV17" s="7"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="8">
+      <c r="C18" s="8"/>
+      <c r="D18" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E18" s="18">
         <v>33.909999999999997</v>
       </c>
-      <c r="C18" s="8">
+      <c r="F18" s="18">
         <v>1009772</v>
       </c>
-      <c r="D18" s="8">
+      <c r="G18" s="18">
         <v>29777</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1817,24 +2028,30 @@
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="8">
+      <c r="C19" s="8"/>
+      <c r="D19" s="16">
+        <v>7</v>
+      </c>
+      <c r="E19" s="18">
         <v>0.68</v>
       </c>
-      <c r="C19" s="8">
+      <c r="F19" s="18">
         <v>316116</v>
       </c>
-      <c r="D19" s="8">
+      <c r="G19" s="18">
         <v>464275</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1875,24 +2092,30 @@
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
       <c r="AV19" s="7"/>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="8">
+      <c r="C20" s="8"/>
+      <c r="D20" s="16">
+        <v>70000</v>
+      </c>
+      <c r="E20" s="18">
         <v>32.770000000000003</v>
       </c>
-      <c r="C20" s="8">
+      <c r="F20" s="18">
         <v>467797</v>
       </c>
-      <c r="D20" s="8">
+      <c r="G20" s="18">
         <v>14277</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1933,24 +2156,30 @@
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="8">
+      <c r="C21" s="8"/>
+      <c r="D21" s="16">
+        <v>700000</v>
+      </c>
+      <c r="E21" s="18">
         <v>28.39</v>
       </c>
-      <c r="C21" s="8">
+      <c r="F21" s="18">
         <v>2717627</v>
       </c>
-      <c r="D21" s="8">
+      <c r="G21" s="18">
         <v>95725</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1991,24 +2220,30 @@
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7"/>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="8">
+      <c r="C22" s="8"/>
+      <c r="D22" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E22" s="18">
         <v>10.78</v>
       </c>
-      <c r="C22" s="8">
+      <c r="F22" s="18">
         <v>1297474</v>
       </c>
-      <c r="D22" s="8">
+      <c r="G22" s="18">
         <v>120374</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -2049,24 +2284,30 @@
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="8">
+      <c r="C23" s="8"/>
+      <c r="D23" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E23" s="18">
         <v>10.82</v>
       </c>
-      <c r="C23" s="8">
+      <c r="F23" s="18">
         <v>651450</v>
       </c>
-      <c r="D23" s="8">
+      <c r="G23" s="18">
         <v>60211</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -2107,24 +2348,32 @@
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="7"/>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="8">
+      <c r="C24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="16">
+        <v>70000000</v>
+      </c>
+      <c r="E24" s="18">
         <v>73.05</v>
       </c>
-      <c r="C24" s="8">
+      <c r="F24" s="18">
         <v>5513804</v>
       </c>
-      <c r="D24" s="8">
+      <c r="G24" s="18">
         <v>75485</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -2165,24 +2414,32 @@
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
       <c r="AV24" s="7"/>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="8">
+      <c r="C25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="16">
+        <v>700000</v>
+      </c>
+      <c r="E25" s="18">
         <v>1.21</v>
       </c>
-      <c r="C25" s="8">
+      <c r="F25" s="18">
         <v>2866490</v>
       </c>
-      <c r="D25" s="8">
+      <c r="G25" s="18">
         <v>2366797</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -2223,24 +2480,30 @@
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
       <c r="AV25" s="7"/>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="7"/>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="8">
+      <c r="C26" s="8"/>
+      <c r="D26" s="16">
+        <v>700</v>
+      </c>
+      <c r="E26" s="18">
         <v>12.06</v>
       </c>
-      <c r="C26" s="8">
+      <c r="F26" s="18">
         <v>861896</v>
       </c>
-      <c r="D26" s="8">
+      <c r="G26" s="18">
         <v>71488</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -2281,24 +2544,30 @@
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7"/>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="C27" s="8"/>
+      <c r="D27" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E27" s="18">
         <v>37.340000000000003</v>
       </c>
-      <c r="C27" s="8">
+      <c r="F27" s="18">
         <v>1120019</v>
       </c>
-      <c r="D27" s="8">
+      <c r="G27" s="18">
         <v>29997</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -2339,24 +2608,30 @@
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
       <c r="AV27" s="7"/>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="8">
+      <c r="C28" s="8"/>
+      <c r="D28" s="16">
+        <v>70</v>
+      </c>
+      <c r="E28" s="18">
         <v>21.2</v>
       </c>
-      <c r="C28" s="8">
+      <c r="F28" s="18">
         <v>1778857</v>
       </c>
-      <c r="D28" s="8">
+      <c r="G28" s="18">
         <v>83908</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -2397,24 +2672,30 @@
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
       <c r="AV28" s="7"/>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="AW28" s="7"/>
+      <c r="AX28" s="7"/>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="8">
+      <c r="C29" s="8"/>
+      <c r="D29" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E29" s="18">
         <v>48.08</v>
       </c>
-      <c r="C29" s="8">
+      <c r="F29" s="18">
         <v>1156093</v>
       </c>
-      <c r="D29" s="8">
+      <c r="G29" s="18">
         <v>24047</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -2455,24 +2736,30 @@
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
       <c r="AV29" s="7"/>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="AW29" s="7"/>
+      <c r="AX29" s="7"/>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="8">
+      <c r="C30" s="8"/>
+      <c r="D30" s="16">
+        <v>7</v>
+      </c>
+      <c r="E30" s="18">
         <v>0.32</v>
       </c>
-      <c r="C30" s="8">
+      <c r="F30" s="18">
         <v>146345</v>
       </c>
-      <c r="D30" s="8">
+      <c r="G30" s="18">
         <v>462464</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -2513,24 +2800,32 @@
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
       <c r="AV30" s="7"/>
-    </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="8">
+      <c r="C31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E31" s="18">
         <v>4910.4399999999996</v>
       </c>
-      <c r="C31" s="8">
+      <c r="F31" s="18">
         <v>12330126</v>
       </c>
-      <c r="D31" s="8">
+      <c r="G31" s="18">
         <v>2511</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -2571,24 +2866,32 @@
       <c r="AT31" s="7"/>
       <c r="AU31" s="7"/>
       <c r="AV31" s="7"/>
-    </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="AW31" s="7"/>
+      <c r="AX31" s="7"/>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="8">
+      <c r="C32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E32" s="18">
         <v>164.91</v>
       </c>
-      <c r="C32" s="8">
+      <c r="F32" s="18">
         <v>7318647</v>
       </c>
-      <c r="D32" s="8">
+      <c r="G32" s="18">
         <v>44379</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -2629,24 +2932,30 @@
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
       <c r="AV32" s="7"/>
-    </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="8">
+      <c r="C33" s="8"/>
+      <c r="D33" s="16">
+        <v>70</v>
+      </c>
+      <c r="E33" s="18">
         <v>5.26</v>
       </c>
-      <c r="C33" s="8">
+      <c r="F33" s="18">
         <v>762173</v>
       </c>
-      <c r="D33" s="8">
+      <c r="G33" s="18">
         <v>144902</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -2687,24 +2996,30 @@
       <c r="AT33" s="7"/>
       <c r="AU33" s="7"/>
       <c r="AV33" s="7"/>
-    </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="AW33" s="7"/>
+      <c r="AX33" s="7"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="8">
+      <c r="C34" s="8"/>
+      <c r="D34" s="16">
+        <v>70</v>
+      </c>
+      <c r="E34" s="18">
         <v>0.25</v>
       </c>
-      <c r="C34" s="8">
+      <c r="F34" s="18">
         <v>43838</v>
       </c>
-      <c r="D34" s="8">
+      <c r="G34" s="18">
         <v>176810</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -2745,24 +3060,30 @@
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
       <c r="AV34" s="7"/>
-    </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="AW34" s="7"/>
+      <c r="AX34" s="7"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="8">
+      <c r="C35" s="8"/>
+      <c r="D35" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E35" s="18">
         <v>42.55</v>
       </c>
-      <c r="C35" s="8">
+      <c r="F35" s="18">
         <v>3260267</v>
       </c>
-      <c r="D35" s="8">
+      <c r="G35" s="18">
         <v>76624</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -2803,24 +3124,30 @@
       <c r="AT35" s="7"/>
       <c r="AU35" s="7"/>
       <c r="AV35" s="7"/>
-    </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="AW35" s="7"/>
+      <c r="AX35" s="7"/>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="8">
+      <c r="C36" s="8"/>
+      <c r="D36" s="16">
+        <v>70</v>
+      </c>
+      <c r="E36" s="18">
         <v>11.3</v>
       </c>
-      <c r="C36" s="8">
+      <c r="F36" s="18">
         <v>615692</v>
       </c>
-      <c r="D36" s="8">
+      <c r="G36" s="18">
         <v>54501</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -2861,24 +3188,30 @@
       <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
       <c r="AV36" s="7"/>
-    </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="AW36" s="7"/>
+      <c r="AX36" s="7"/>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="8">
+      <c r="C37" s="8"/>
+      <c r="D37" s="16">
+        <v>700000</v>
+      </c>
+      <c r="E37" s="18">
         <v>15.54</v>
       </c>
-      <c r="C37" s="8">
+      <c r="F37" s="18">
         <v>2762237</v>
       </c>
-      <c r="D37" s="8">
+      <c r="G37" s="18">
         <v>177756</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -2919,24 +3252,32 @@
       <c r="AT37" s="7"/>
       <c r="AU37" s="7"/>
       <c r="AV37" s="7"/>
-    </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="AW37" s="7"/>
+      <c r="AX37" s="7"/>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="8">
+      <c r="C38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="16">
+        <v>700000</v>
+      </c>
+      <c r="E38" s="18">
         <v>14.02</v>
       </c>
-      <c r="C38" s="8">
+      <c r="F38" s="18">
         <v>1978466</v>
       </c>
-      <c r="D38" s="8">
+      <c r="G38" s="18">
         <v>141140</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -2977,24 +3318,30 @@
       <c r="AT38" s="7"/>
       <c r="AU38" s="7"/>
       <c r="AV38" s="7"/>
-    </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="AW38" s="7"/>
+      <c r="AX38" s="7"/>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="8">
+      <c r="C39" s="8"/>
+      <c r="D39" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E39" s="18">
         <v>16.13</v>
       </c>
-      <c r="C39" s="8">
+      <c r="F39" s="18">
         <v>1994762</v>
       </c>
-      <c r="D39" s="8">
+      <c r="G39" s="18">
         <v>123702</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -3035,24 +3382,30 @@
       <c r="AT39" s="7"/>
       <c r="AU39" s="7"/>
       <c r="AV39" s="7"/>
-    </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="AW39" s="7"/>
+      <c r="AX39" s="7"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="8">
+      <c r="C40" s="8"/>
+      <c r="D40" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E40" s="18">
         <v>30.82</v>
       </c>
-      <c r="C40" s="8">
+      <c r="F40" s="18">
         <v>759721</v>
       </c>
-      <c r="D40" s="8">
+      <c r="G40" s="18">
         <v>24652</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -3093,24 +3446,30 @@
       <c r="AT40" s="7"/>
       <c r="AU40" s="7"/>
       <c r="AV40" s="7"/>
-    </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="AW40" s="7"/>
+      <c r="AX40" s="7"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="8">
+      <c r="C41" s="8"/>
+      <c r="D41" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E41" s="18">
         <v>31.11</v>
       </c>
-      <c r="C41" s="8">
+      <c r="F41" s="18">
         <v>1348703</v>
       </c>
-      <c r="D41" s="8">
+      <c r="G41" s="18">
         <v>43352</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -3151,24 +3510,30 @@
       <c r="AT41" s="7"/>
       <c r="AU41" s="7"/>
       <c r="AV41" s="7"/>
-    </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="AW41" s="7"/>
+      <c r="AX41" s="7"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="8">
+      <c r="C42" s="8"/>
+      <c r="D42" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E42" s="18">
         <v>16.440000000000001</v>
       </c>
-      <c r="C42" s="8">
+      <c r="F42" s="18">
         <v>2634409</v>
       </c>
-      <c r="D42" s="8">
+      <c r="G42" s="18">
         <v>160236</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -3209,24 +3574,32 @@
       <c r="AT42" s="7"/>
       <c r="AU42" s="7"/>
       <c r="AV42" s="7"/>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="AW42" s="7"/>
+      <c r="AX42" s="7"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="8">
+      <c r="C43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="16">
+        <v>7</v>
+      </c>
+      <c r="E43" s="18">
         <v>11.71</v>
       </c>
-      <c r="C43" s="8">
+      <c r="F43" s="18">
         <v>1929008</v>
       </c>
-      <c r="D43" s="8">
+      <c r="G43" s="18">
         <v>164673</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -3267,24 +3640,30 @@
       <c r="AT43" s="7"/>
       <c r="AU43" s="7"/>
       <c r="AV43" s="7"/>
-    </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="AW43" s="7"/>
+      <c r="AX43" s="7"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="8">
+      <c r="C44" s="8"/>
+      <c r="D44" s="16">
+        <v>70</v>
+      </c>
+      <c r="E44" s="18">
         <v>11.67</v>
       </c>
-      <c r="C44" s="8">
+      <c r="F44" s="18">
         <v>646374</v>
       </c>
-      <c r="D44" s="8">
+      <c r="G44" s="18">
         <v>55399</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -3325,24 +3704,30 @@
       <c r="AT44" s="7"/>
       <c r="AU44" s="7"/>
       <c r="AV44" s="7"/>
-    </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="AW44" s="7"/>
+      <c r="AX44" s="7"/>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="8">
+      <c r="C45" s="8"/>
+      <c r="D45" s="16">
+        <v>70000000</v>
+      </c>
+      <c r="E45" s="18">
         <v>57.94</v>
       </c>
-      <c r="C45" s="8">
+      <c r="F45" s="18">
         <v>451480</v>
       </c>
-      <c r="D45" s="8">
+      <c r="G45" s="18">
         <v>7792</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -3383,24 +3768,30 @@
       <c r="AT45" s="7"/>
       <c r="AU45" s="7"/>
       <c r="AV45" s="7"/>
-    </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="AW45" s="7"/>
+      <c r="AX45" s="7"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="8">
+      <c r="C46" s="8"/>
+      <c r="D46" s="16">
+        <v>700000</v>
+      </c>
+      <c r="E46" s="18">
         <v>2.3199999999999998</v>
       </c>
-      <c r="C46" s="8">
+      <c r="F46" s="18">
         <v>215161</v>
       </c>
-      <c r="D46" s="8">
+      <c r="G46" s="18">
         <v>92903</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -3441,24 +3832,32 @@
       <c r="AT46" s="7"/>
       <c r="AU46" s="7"/>
       <c r="AV46" s="7"/>
-    </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="7"/>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="8">
+      <c r="C47" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E47" s="18">
         <v>28.48</v>
       </c>
-      <c r="C47" s="8">
+      <c r="F47" s="18">
         <v>4071064</v>
       </c>
-      <c r="D47" s="8">
+      <c r="G47" s="18">
         <v>142947</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -3499,24 +3898,30 @@
       <c r="AT47" s="7"/>
       <c r="AU47" s="7"/>
       <c r="AV47" s="7"/>
-    </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="AW47" s="7"/>
+      <c r="AX47" s="7"/>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="8">
+      <c r="C48" s="8"/>
+      <c r="D48" s="16">
+        <v>700000</v>
+      </c>
+      <c r="E48" s="18">
         <v>2.8</v>
       </c>
-      <c r="C48" s="8">
+      <c r="F48" s="18">
         <v>982284</v>
       </c>
-      <c r="D48" s="8">
+      <c r="G48" s="18">
         <v>351334</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -3557,24 +3962,30 @@
       <c r="AT48" s="7"/>
       <c r="AU48" s="7"/>
       <c r="AV48" s="7"/>
-    </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="AW48" s="7"/>
+      <c r="AX48" s="7"/>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="8">
+      <c r="C49" s="8"/>
+      <c r="D49" s="16">
+        <v>70000</v>
+      </c>
+      <c r="E49" s="18">
         <v>59.99</v>
       </c>
-      <c r="C49" s="8">
+      <c r="F49" s="18">
         <v>3015660</v>
       </c>
-      <c r="D49" s="8">
+      <c r="G49" s="18">
         <v>50270</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -3615,24 +4026,30 @@
       <c r="AT49" s="7"/>
       <c r="AU49" s="7"/>
       <c r="AV49" s="7"/>
-    </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="AW49" s="7"/>
+      <c r="AX49" s="7"/>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="8">
+      <c r="C50" s="8"/>
+      <c r="D50" s="16">
+        <v>70000</v>
+      </c>
+      <c r="E50" s="18">
         <v>130.31</v>
       </c>
-      <c r="C50" s="8">
+      <c r="F50" s="18">
         <v>472776</v>
       </c>
-      <c r="D50" s="8">
+      <c r="G50" s="18">
         <v>3628</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -3673,24 +4090,30 @@
       <c r="AT50" s="7"/>
       <c r="AU50" s="7"/>
       <c r="AV50" s="7"/>
-    </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="7"/>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="8">
+      <c r="C51" s="8"/>
+      <c r="D51" s="16">
+        <v>70000000</v>
+      </c>
+      <c r="E51" s="18">
         <v>3.73</v>
       </c>
-      <c r="C51" s="8">
+      <c r="F51" s="18">
         <v>278733</v>
       </c>
-      <c r="D51" s="8">
+      <c r="G51" s="18">
         <v>74731</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -3731,24 +4154,30 @@
       <c r="AT51" s="7"/>
       <c r="AU51" s="7"/>
       <c r="AV51" s="7"/>
-    </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="AW51" s="7"/>
+      <c r="AX51" s="7"/>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="8">
+      <c r="C52" s="8"/>
+      <c r="D52" s="16">
+        <v>70</v>
+      </c>
+      <c r="E52" s="18">
         <v>3.49</v>
       </c>
-      <c r="C52" s="8">
+      <c r="F52" s="18">
         <v>629875</v>
       </c>
-      <c r="D52" s="8">
+      <c r="G52" s="18">
         <v>180520</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -3789,24 +4218,30 @@
       <c r="AT52" s="7"/>
       <c r="AU52" s="7"/>
       <c r="AV52" s="7"/>
-    </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="AW52" s="7"/>
+      <c r="AX52" s="7"/>
+    </row>
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="8">
+      <c r="C53" s="8"/>
+      <c r="D53" s="16">
+        <v>70</v>
+      </c>
+      <c r="E53" s="18">
         <v>2.06</v>
       </c>
-      <c r="C53" s="8">
+      <c r="F53" s="18">
         <v>856831</v>
       </c>
-      <c r="D53" s="8">
+      <c r="G53" s="18">
         <v>416774</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -3847,24 +4282,30 @@
       <c r="AT53" s="7"/>
       <c r="AU53" s="7"/>
       <c r="AV53" s="7"/>
-    </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="AW53" s="7"/>
+      <c r="AX53" s="7"/>
+    </row>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="8">
+      <c r="C54" s="8"/>
+      <c r="D54" s="16">
+        <v>70000000</v>
+      </c>
+      <c r="E54" s="18">
         <v>73.12</v>
       </c>
-      <c r="C54" s="8">
+      <c r="F54" s="18">
         <v>1907106</v>
       </c>
-      <c r="D54" s="8">
+      <c r="G54" s="18">
         <v>26081</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -3905,24 +4346,30 @@
       <c r="AT54" s="7"/>
       <c r="AU54" s="7"/>
       <c r="AV54" s="7"/>
-    </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="AW54" s="7"/>
+      <c r="AX54" s="7"/>
+    </row>
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="8">
+      <c r="C55" s="8"/>
+      <c r="D55" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E55" s="18">
         <v>29.34</v>
       </c>
-      <c r="C55" s="8">
+      <c r="F55" s="18">
         <v>685865</v>
       </c>
-      <c r="D55" s="8">
+      <c r="G55" s="18">
         <v>23375</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -3963,24 +4410,30 @@
       <c r="AT55" s="7"/>
       <c r="AU55" s="7"/>
       <c r="AV55" s="7"/>
-    </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="AW55" s="7"/>
+      <c r="AX55" s="7"/>
+    </row>
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="8">
+      <c r="C56" s="8"/>
+      <c r="D56" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E56" s="18">
         <v>30.9</v>
       </c>
-      <c r="C56" s="8">
+      <c r="F56" s="18">
         <v>807453</v>
       </c>
-      <c r="D56" s="8">
+      <c r="G56" s="18">
         <v>26128</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -4021,24 +4474,30 @@
       <c r="AT56" s="7"/>
       <c r="AU56" s="7"/>
       <c r="AV56" s="7"/>
-    </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="AW56" s="7"/>
+      <c r="AX56" s="7"/>
+    </row>
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="8">
+      <c r="C57" s="8"/>
+      <c r="D57" s="16">
+        <v>7</v>
+      </c>
+      <c r="E57" s="18">
         <v>0.31</v>
       </c>
-      <c r="C57" s="8">
+      <c r="F57" s="18">
         <v>959689</v>
       </c>
-      <c r="D57" s="8">
+      <c r="G57" s="18">
         <v>3083523</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -4079,24 +4538,30 @@
       <c r="AT57" s="7"/>
       <c r="AU57" s="7"/>
       <c r="AV57" s="7"/>
-    </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="AW57" s="7"/>
+      <c r="AX57" s="7"/>
+    </row>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="8">
+      <c r="C58" s="8"/>
+      <c r="D58" s="16">
+        <v>70000</v>
+      </c>
+      <c r="E58" s="18">
         <v>88.11</v>
       </c>
-      <c r="C58" s="8">
+      <c r="F58" s="18">
         <v>703745</v>
       </c>
-      <c r="D58" s="8">
+      <c r="G58" s="18">
         <v>7987</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -4137,24 +4602,32 @@
       <c r="AT58" s="7"/>
       <c r="AU58" s="7"/>
       <c r="AV58" s="7"/>
-    </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="AW58" s="7"/>
+      <c r="AX58" s="7"/>
+    </row>
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="8">
+      <c r="C59" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E59" s="18">
         <v>57.02</v>
       </c>
-      <c r="C59" s="8">
+      <c r="F59" s="18">
         <v>3868730</v>
       </c>
-      <c r="D59" s="8">
+      <c r="G59" s="18">
         <v>67847</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -4195,24 +4668,30 @@
       <c r="AT59" s="7"/>
       <c r="AU59" s="7"/>
       <c r="AV59" s="7"/>
-    </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="AW59" s="7"/>
+      <c r="AX59" s="7"/>
+    </row>
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="8">
+      <c r="C60" s="8"/>
+      <c r="D60" s="16">
+        <v>700000</v>
+      </c>
+      <c r="E60" s="18">
         <v>1.87</v>
       </c>
-      <c r="C60" s="8">
+      <c r="F60" s="18">
         <v>315637</v>
       </c>
-      <c r="D60" s="8">
+      <c r="G60" s="18">
         <v>168604</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -4253,24 +4732,30 @@
       <c r="AT60" s="7"/>
       <c r="AU60" s="7"/>
       <c r="AV60" s="7"/>
-    </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="AW60" s="7"/>
+      <c r="AX60" s="7"/>
+    </row>
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="8">
+      <c r="C61" s="8"/>
+      <c r="D61" s="16">
+        <v>700000</v>
+      </c>
+      <c r="E61" s="18">
         <v>8.7200000000000006</v>
       </c>
-      <c r="C61" s="8">
+      <c r="F61" s="18">
         <v>536781</v>
       </c>
-      <c r="D61" s="8">
+      <c r="G61" s="18">
         <v>61569</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -4311,24 +4796,32 @@
       <c r="AT61" s="7"/>
       <c r="AU61" s="7"/>
       <c r="AV61" s="7"/>
-    </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="AW61" s="7"/>
+      <c r="AX61" s="7"/>
+    </row>
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="8">
+      <c r="C62" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="16">
+        <v>70000000</v>
+      </c>
+      <c r="E62" s="18">
         <v>41.95</v>
       </c>
-      <c r="C62" s="8">
+      <c r="F62" s="18">
         <v>4236000</v>
       </c>
-      <c r="D62" s="8">
+      <c r="G62" s="18">
         <v>100967</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="18"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -4369,24 +4862,30 @@
       <c r="AT62" s="7"/>
       <c r="AU62" s="7"/>
       <c r="AV62" s="7"/>
-    </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="AW62" s="7"/>
+      <c r="AX62" s="7"/>
+    </row>
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B63" s="8">
+      <c r="C63" s="8"/>
+      <c r="D63" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E63" s="18">
         <v>28.53</v>
       </c>
-      <c r="C63" s="8">
+      <c r="F63" s="18">
         <v>1130103</v>
       </c>
-      <c r="D63" s="8">
+      <c r="G63" s="18">
         <v>39605</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="H63" s="18"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -4427,24 +4926,32 @@
       <c r="AT63" s="7"/>
       <c r="AU63" s="7"/>
       <c r="AV63" s="7"/>
-    </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="AW63" s="7"/>
+      <c r="AX63" s="7"/>
+    </row>
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="8">
+      <c r="C64" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E64" s="18">
         <v>59.85</v>
       </c>
-      <c r="C64" s="8">
+      <c r="F64" s="18">
         <v>3205975</v>
       </c>
-      <c r="D64" s="8">
+      <c r="G64" s="18">
         <v>53565</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -4485,24 +4992,30 @@
       <c r="AT64" s="7"/>
       <c r="AU64" s="7"/>
       <c r="AV64" s="7"/>
-    </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="AW64" s="7"/>
+      <c r="AX64" s="7"/>
+    </row>
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="8">
+      <c r="C65" s="8"/>
+      <c r="D65" s="16">
+        <v>70</v>
+      </c>
+      <c r="E65" s="18">
         <v>3724.65</v>
       </c>
-      <c r="C65" s="8">
+      <c r="F65" s="18">
         <v>5225690</v>
       </c>
-      <c r="D65" s="8">
+      <c r="G65" s="18">
         <v>1403</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="18"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -4543,24 +5056,32 @@
       <c r="AT65" s="7"/>
       <c r="AU65" s="7"/>
       <c r="AV65" s="7"/>
-    </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="AW65" s="7"/>
+      <c r="AX65" s="7"/>
+    </row>
+    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="8">
+      <c r="C66" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="18">
         <v>24.57</v>
       </c>
-      <c r="C66" s="8">
+      <c r="F66" s="18">
         <v>2487529</v>
       </c>
-      <c r="D66" s="8">
+      <c r="G66" s="18">
         <v>101240</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="18"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -4601,24 +5122,30 @@
       <c r="AT66" s="7"/>
       <c r="AU66" s="7"/>
       <c r="AV66" s="7"/>
-    </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="AW66" s="7"/>
+      <c r="AX66" s="7"/>
+    </row>
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="8">
+      <c r="C67" s="8"/>
+      <c r="D67" s="16">
+        <v>7</v>
+      </c>
+      <c r="E67" s="18">
         <v>5.59</v>
       </c>
-      <c r="C67" s="8">
+      <c r="F67" s="18">
         <v>487293</v>
       </c>
-      <c r="D67" s="8">
+      <c r="G67" s="18">
         <v>87101</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -4659,24 +5186,32 @@
       <c r="AT67" s="7"/>
       <c r="AU67" s="7"/>
       <c r="AV67" s="7"/>
-    </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="AW67" s="7"/>
+      <c r="AX67" s="7"/>
+    </row>
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="8">
+      <c r="C68" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="16">
+        <v>700</v>
+      </c>
+      <c r="E68" s="18">
         <v>22.28</v>
       </c>
-      <c r="C68" s="8">
+      <c r="F68" s="18">
         <v>4330006</v>
       </c>
-      <c r="D68" s="8">
+      <c r="G68" s="18">
         <v>194307</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -4717,24 +5252,30 @@
       <c r="AT68" s="7"/>
       <c r="AU68" s="7"/>
       <c r="AV68" s="7"/>
-    </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="AW68" s="7"/>
+      <c r="AX68" s="7"/>
+    </row>
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="8">
+      <c r="C69" s="8"/>
+      <c r="D69" s="16">
+        <v>70000000</v>
+      </c>
+      <c r="E69" s="18">
         <v>481.79</v>
       </c>
-      <c r="C69" s="8">
+      <c r="F69" s="18">
         <v>416263</v>
       </c>
-      <c r="D69" s="8">
+      <c r="G69" s="18">
         <v>864</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -4775,24 +5316,32 @@
       <c r="AT69" s="7"/>
       <c r="AU69" s="7"/>
       <c r="AV69" s="7"/>
-    </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="AW69" s="7"/>
+      <c r="AX69" s="7"/>
+    </row>
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="8">
+      <c r="C70" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E70" s="18">
         <v>19.260000000000002</v>
       </c>
-      <c r="C70" s="8">
+      <c r="F70" s="18">
         <v>958630</v>
       </c>
-      <c r="D70" s="8">
+      <c r="G70" s="18">
         <v>49779</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="H70" s="18"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -4833,24 +5382,30 @@
       <c r="AT70" s="7"/>
       <c r="AU70" s="7"/>
       <c r="AV70" s="7"/>
-    </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="AW70" s="7"/>
+      <c r="AX70" s="7"/>
+    </row>
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="8">
+      <c r="C71" s="8"/>
+      <c r="D71" s="16">
+        <v>70000</v>
+      </c>
+      <c r="E71" s="18">
         <v>42.35</v>
       </c>
-      <c r="C71" s="8">
+      <c r="F71" s="18">
         <v>2801597</v>
       </c>
-      <c r="D71" s="8">
+      <c r="G71" s="18">
         <v>66160</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="H71" s="18"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -4891,24 +5446,30 @@
       <c r="AT71" s="7"/>
       <c r="AU71" s="7"/>
       <c r="AV71" s="7"/>
-    </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="AW71" s="7"/>
+      <c r="AX71" s="7"/>
+    </row>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="8">
+      <c r="C72" s="8"/>
+      <c r="D72" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E72" s="18">
         <v>30.48</v>
       </c>
-      <c r="C72" s="8">
+      <c r="F72" s="18">
         <v>1050295</v>
       </c>
-      <c r="D72" s="8">
+      <c r="G72" s="18">
         <v>34462</v>
       </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
+      <c r="H72" s="18"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -4949,24 +5510,30 @@
       <c r="AT72" s="7"/>
       <c r="AU72" s="7"/>
       <c r="AV72" s="7"/>
-    </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="AW72" s="7"/>
+      <c r="AX72" s="7"/>
+    </row>
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="8">
+      <c r="C73" s="8"/>
+      <c r="D73" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E73" s="18">
         <v>15.5</v>
       </c>
-      <c r="C73" s="8">
+      <c r="F73" s="18">
         <v>1304744</v>
       </c>
-      <c r="D73" s="8">
+      <c r="G73" s="18">
         <v>84201</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+      <c r="H73" s="18"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -5007,24 +5574,32 @@
       <c r="AT73" s="7"/>
       <c r="AU73" s="7"/>
       <c r="AV73" s="7"/>
-    </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="AW73" s="7"/>
+      <c r="AX73" s="7"/>
+    </row>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="8">
+      <c r="C74" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="16">
+        <v>700000</v>
+      </c>
+      <c r="E74" s="18">
         <v>3.42</v>
       </c>
-      <c r="C74" s="8">
+      <c r="F74" s="18">
         <v>1076762</v>
       </c>
-      <c r="D74" s="8">
+      <c r="G74" s="18">
         <v>314391</v>
       </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
+      <c r="H74" s="18"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -5065,24 +5640,30 @@
       <c r="AT74" s="7"/>
       <c r="AU74" s="7"/>
       <c r="AV74" s="7"/>
-    </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="AW74" s="7"/>
+      <c r="AX74" s="7"/>
+    </row>
+    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="8">
+      <c r="C75" s="8"/>
+      <c r="D75" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E75" s="18">
         <v>58.66</v>
       </c>
-      <c r="C75" s="8">
+      <c r="F75" s="18">
         <v>1506446</v>
       </c>
-      <c r="D75" s="8">
+      <c r="G75" s="18">
         <v>25679</v>
       </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="H75" s="18"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -5123,24 +5704,32 @@
       <c r="AT75" s="7"/>
       <c r="AU75" s="7"/>
       <c r="AV75" s="7"/>
-    </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="AW75" s="7"/>
+      <c r="AX75" s="7"/>
+    </row>
+    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="8">
+      <c r="C76" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="16">
+        <v>700</v>
+      </c>
+      <c r="E76" s="18">
         <v>2.4700000000000002</v>
       </c>
-      <c r="C76" s="8">
+      <c r="F76" s="18">
         <v>3615485</v>
       </c>
-      <c r="D76" s="8">
+      <c r="G76" s="18">
         <v>1464173</v>
       </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
+      <c r="H76" s="18"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -5181,24 +5770,30 @@
       <c r="AT76" s="7"/>
       <c r="AU76" s="7"/>
       <c r="AV76" s="7"/>
-    </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="AW76" s="7"/>
+      <c r="AX76" s="7"/>
+    </row>
+    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="8">
+      <c r="C77" s="8"/>
+      <c r="D77" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E77" s="18">
         <v>36.07</v>
       </c>
-      <c r="C77" s="8">
+      <c r="F77" s="18">
         <v>1517164</v>
       </c>
-      <c r="D77" s="8">
+      <c r="G77" s="18">
         <v>42061</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="H77" s="18"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -5239,24 +5834,30 @@
       <c r="AT77" s="7"/>
       <c r="AU77" s="7"/>
       <c r="AV77" s="7"/>
-    </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="AW77" s="7"/>
+      <c r="AX77" s="7"/>
+    </row>
+    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="8">
+      <c r="C78" s="8"/>
+      <c r="D78" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E78" s="18">
         <v>33.82</v>
       </c>
-      <c r="C78" s="8">
+      <c r="F78" s="18">
         <v>1257621</v>
       </c>
-      <c r="D78" s="8">
+      <c r="G78" s="18">
         <v>37181</v>
       </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
+      <c r="H78" s="18"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -5297,24 +5898,30 @@
       <c r="AT78" s="7"/>
       <c r="AU78" s="7"/>
       <c r="AV78" s="7"/>
-    </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="AW78" s="7"/>
+      <c r="AX78" s="7"/>
+    </row>
+    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="8">
+      <c r="C79" s="8"/>
+      <c r="D79" s="16">
+        <v>7</v>
+      </c>
+      <c r="E79" s="18">
         <v>1.69</v>
       </c>
-      <c r="C79" s="8">
+      <c r="F79" s="18">
         <v>1334552</v>
       </c>
-      <c r="D79" s="8">
+      <c r="G79" s="18">
         <v>787633</v>
       </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
+      <c r="H79" s="18"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -5355,24 +5962,30 @@
       <c r="AT79" s="7"/>
       <c r="AU79" s="7"/>
       <c r="AV79" s="7"/>
-    </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="AW79" s="7"/>
+      <c r="AX79" s="7"/>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="8">
+      <c r="C80" s="8"/>
+      <c r="D80" s="16">
+        <v>700</v>
+      </c>
+      <c r="E80" s="18">
         <v>3.04</v>
       </c>
-      <c r="C80" s="8">
+      <c r="F80" s="18">
         <v>1626755</v>
       </c>
-      <c r="D80" s="8">
+      <c r="G80" s="18">
         <v>534801</v>
       </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
+      <c r="H80" s="18"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -5413,24 +6026,32 @@
       <c r="AT80" s="7"/>
       <c r="AU80" s="7"/>
       <c r="AV80" s="7"/>
-    </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="AW80" s="7"/>
+      <c r="AX80" s="7"/>
+    </row>
+    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="8">
+      <c r="C81" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" s="16">
+        <v>700</v>
+      </c>
+      <c r="E81" s="18">
         <v>39.54</v>
       </c>
-      <c r="C81" s="8">
+      <c r="F81" s="18">
         <v>3500716</v>
       </c>
-      <c r="D81" s="8">
+      <c r="G81" s="18">
         <v>88529</v>
       </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="H81" s="18"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -5471,24 +6092,30 @@
       <c r="AT81" s="7"/>
       <c r="AU81" s="7"/>
       <c r="AV81" s="7"/>
-    </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="AW81" s="7"/>
+      <c r="AX81" s="7"/>
+    </row>
+    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="8">
+      <c r="C82" s="8"/>
+      <c r="D82" s="16">
+        <v>70000</v>
+      </c>
+      <c r="E82" s="18">
         <v>89.1</v>
       </c>
-      <c r="C82" s="8">
+      <c r="F82" s="18">
         <v>1394172</v>
       </c>
-      <c r="D82" s="8">
+      <c r="G82" s="18">
         <v>15647</v>
       </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+      <c r="H82" s="18"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -5529,24 +6156,30 @@
       <c r="AT82" s="7"/>
       <c r="AU82" s="7"/>
       <c r="AV82" s="7"/>
-    </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="AW82" s="7"/>
+      <c r="AX82" s="7"/>
+    </row>
+    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="8">
+      <c r="C83" s="8"/>
+      <c r="D83" s="16">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="18">
         <v>67.42</v>
       </c>
-      <c r="C83" s="8">
+      <c r="F83" s="18">
         <v>1236628</v>
       </c>
-      <c r="D83" s="8">
+      <c r="G83" s="18">
         <v>18343</v>
       </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
+      <c r="H83" s="18"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
@@ -5587,24 +6220,30 @@
       <c r="AT83" s="7"/>
       <c r="AU83" s="7"/>
       <c r="AV83" s="7"/>
-    </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="AW83" s="7"/>
+      <c r="AX83" s="7"/>
+    </row>
+    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="8">
+      <c r="C84" s="8"/>
+      <c r="D84" s="16">
+        <v>7</v>
+      </c>
+      <c r="E84" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C84" s="8">
+      <c r="F84" s="18">
         <v>50157</v>
       </c>
-      <c r="D84" s="8">
+      <c r="G84" s="18">
         <v>721481</v>
       </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
+      <c r="H84" s="18"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
@@ -5645,24 +6284,30 @@
       <c r="AT84" s="7"/>
       <c r="AU84" s="7"/>
       <c r="AV84" s="7"/>
-    </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="AW84" s="7"/>
+      <c r="AX84" s="7"/>
+    </row>
+    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="8">
+      <c r="C85" s="8"/>
+      <c r="D85" s="16">
+        <v>700</v>
+      </c>
+      <c r="E85" s="18">
         <v>0.69</v>
       </c>
-      <c r="C85" s="8">
+      <c r="F85" s="18">
         <v>534104</v>
       </c>
-      <c r="D85" s="8">
+      <c r="G85" s="18">
         <v>769250</v>
       </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+      <c r="H85" s="18"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
@@ -5703,24 +6348,32 @@
       <c r="AT85" s="7"/>
       <c r="AU85" s="7"/>
       <c r="AV85" s="7"/>
-    </row>
-    <row r="86" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="AW85" s="7"/>
+      <c r="AX85" s="7"/>
+    </row>
+    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="10">
+      <c r="C86" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="16">
+        <v>7000000</v>
+      </c>
+      <c r="E86" s="18">
         <v>35.159999999999997</v>
       </c>
-      <c r="C86" s="10">
+      <c r="F86" s="18">
         <v>1271912</v>
       </c>
-      <c r="D86" s="10">
+      <c r="G86" s="18">
         <v>36177</v>
       </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
+      <c r="H86" s="18"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -5761,10 +6414,12 @@
       <c r="AT86" s="7"/>
       <c r="AU86" s="7"/>
       <c r="AV86" s="7"/>
+      <c r="AW86" s="7"/>
+      <c r="AX86" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D86">
-    <sortCondition ref="A2"/>
+  <sortState ref="B2:E86">
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
